--- a/Version_on_pcloud/Data/Unpubd data from Kendra/December2024HMM_Diffusion_Master_01142025.xlsx
+++ b/Version_on_pcloud/Data/Unpubd data from Kendra/December2024HMM_Diffusion_Master_01142025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klynn\Desktop\Kilauea 2024 -2025 HMM\PetrologyGeochemistry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Python dev\PrePostCalderaKil_2025\Version_on_pcloud\Data\Unpubd data from Kendra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B4DBC5-FC9E-4F78-A64B-C7E827ED8353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525AC60-F27E-41D8-805D-C2D0632B7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28815" windowHeight="15585" xr2:uid="{80B03CBC-C1E3-4C4F-8228-895535DC1768}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{80B03CBC-C1E3-4C4F-8228-895535DC1768}"/>
   </bookViews>
   <sheets>
     <sheet name="SanCarlosMaster" sheetId="1" r:id="rId1"/>
@@ -377,16 +377,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -10110,8 +10107,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8686800" y="323850"/>
-              <a:ext cx="4572000" cy="2752725"/>
+              <a:off x="8835390" y="310515"/>
+              <a:ext cx="4572000" cy="2619375"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10264,8 +10261,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13296900" y="314325"/>
-              <a:ext cx="4572000" cy="2752725"/>
+              <a:off x="13445490" y="306705"/>
+              <a:ext cx="4572000" cy="2619375"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10422,15 +10419,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>64770</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>119467</xdr:colOff>
+      <xdr:colOff>121372</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>103194</xdr:rowOff>
+      <xdr:rowOff>101289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10459,8 +10456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915900" y="3124200"/>
-          <a:ext cx="4319992" cy="3455994"/>
+          <a:off x="13039937" y="2954867"/>
+          <a:ext cx="4353435" cy="3263589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10472,15 +10469,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>201930</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10495,8 +10492,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13639800" y="4152900"/>
-          <a:ext cx="628650" cy="104775"/>
+          <a:off x="13768070" y="3930650"/>
+          <a:ext cx="636693" cy="92287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10530,13 +10527,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10551,8 +10548,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15859125" y="4362450"/>
-          <a:ext cx="533400" cy="66675"/>
+          <a:off x="16002000" y="4125807"/>
+          <a:ext cx="537633" cy="61806"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10584,15 +10581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>331470</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>278130</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10607,8 +10604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="512966">
-          <a:off x="13792200" y="3895725"/>
-          <a:ext cx="552450" cy="285750"/>
+          <a:off x="13920470" y="3685963"/>
+          <a:ext cx="560493" cy="271357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10648,15 +10645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>11429</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>163829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:colOff>560069</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>64769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10671,8 +10668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="512966">
-          <a:off x="15906749" y="4162424"/>
-          <a:ext cx="552450" cy="285750"/>
+          <a:off x="16055762" y="3942079"/>
+          <a:ext cx="548640" cy="260773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10713,9 +10710,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10753,7 +10750,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10859,7 +10856,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11001,7 +10998,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11011,16 +11008,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395257D8-50C0-4E10-8A1A-C290093A8027}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11049,7 +11046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -11076,7 +11073,7 @@
         <v>90.2393</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -11103,7 +11100,7 @@
         <v>90.231499999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -11130,7 +11127,7 @@
         <v>90.200400000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -11165,7 +11162,7 @@
         <v>90.223733333333328</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -11216,10 +11213,10 @@
         <v>0.89027816246587266</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -11246,7 +11243,7 @@
         <v>90.183199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -11273,7 +11270,7 @@
         <v>90.185699999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11300,7 +11297,7 @@
         <v>90.148600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -11335,7 +11332,7 @@
         <v>90.172499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -11361,7 +11358,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -11386,10 +11383,10 @@
         <v>0.90647221159075797</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -11416,7 +11413,7 @@
         <v>90.190899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -11443,7 +11440,7 @@
         <v>90.191500000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -11470,7 +11467,7 @@
         <v>90.201099999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -11505,7 +11502,7 @@
         <v>90.194500000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -11531,7 +11528,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -11556,10 +11553,10 @@
         <v>0.86425996939879524</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -11586,7 +11583,7 @@
         <v>90.191800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -11613,7 +11610,7 @@
         <v>90.167900000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -11640,7 +11637,7 @@
         <v>90.1738</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -11675,7 +11672,7 @@
         <v>90.177833333333339</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -11701,7 +11698,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -11726,10 +11723,10 @@
         <v>0.87733835040893715</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -11756,7 +11753,7 @@
         <v>90.146699999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -11783,7 +11780,7 @@
         <v>90.158100000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>90.174599999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -11845,7 +11842,7 @@
         <v>90.159800000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -11871,7 +11868,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -11896,10 +11893,10 @@
         <v>0.92513594358726603</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -11926,7 +11923,7 @@
         <v>90.163399999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -11953,7 +11950,7 @@
         <v>90.153899999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -11980,7 +11977,7 @@
         <v>90.177899999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -12015,7 +12012,7 @@
         <v>90.165066666666647</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -12041,7 +12038,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -12066,7 +12063,7 @@
         <v>0.91138932864361644</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -12094,7 +12091,7 @@
         <v>90.223733333333328</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -12122,7 +12119,7 @@
         <v>90.172499999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -12150,7 +12147,7 @@
         <v>90.194500000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>83</v>
       </c>
@@ -12178,7 +12175,7 @@
         <v>90.177833333333339</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -12206,7 +12203,7 @@
         <v>90.159800000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>85</v>
       </c>
@@ -12244,22 +12241,22 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="R13" sqref="R13"/>
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12287,59 +12284,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>39.484433333333328</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>42.966033333333336</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>16.818299999999997</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.22063033333333334</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.25208999999999998</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="1">
         <v>99.741486999999992</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7">
+      <c r="J2" s="1">
         <v>81.99496666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>39.434499999999993</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43.27</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>16.375866666666667</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.2301</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.26037700000000003</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="1">
         <v>99.570843666666676</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7">
+      <c r="J3" s="1">
         <v>82.487266666666656</v>
       </c>
       <c r="AB3" t="s">
@@ -12348,36 +12343,35 @@
       <c r="AC3">
         <v>37</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="6">
         <f>AC3/58*100</f>
         <v>63.793103448275865</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>39.454500000000003</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>43.056699999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>16.785066666666665</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.21376033333333333</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.26365233333333332</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="1">
         <v>99.773679333333334</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7">
+      <c r="J4" s="1">
         <v>82.055199999999999</v>
       </c>
       <c r="AB4" t="s">
@@ -12386,36 +12380,35 @@
       <c r="AC4">
         <v>15</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="6">
         <f t="shared" ref="AD4:AD9" si="0">AC4/58*100</f>
         <v>25.862068965517242</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>39.609700000000004</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>43.774300000000004</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>16.067399999999999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.24088899999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.25927300000000003</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="1">
         <v>99.95156200000001</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7">
+      <c r="J5" s="1">
         <v>82.924866666666659</v>
       </c>
       <c r="AB5" t="s">
@@ -12424,36 +12417,35 @@
       <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="6">
         <f t="shared" si="0"/>
         <v>3.4482758620689653</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>39.827766666666669</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>43.399333333333324</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>16.089133333333333</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.23832066666666665</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.25931966666666667</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>99.813873666666652</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7">
+      <c r="J6" s="1">
         <v>82.783566666666673</v>
       </c>
       <c r="AB6" t="s">
@@ -12462,36 +12454,35 @@
       <c r="AC6">
         <v>1</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="6">
         <f t="shared" si="0"/>
         <v>1.7241379310344827</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>40.019866666666665</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>43.16726666666667</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>16.528433333333332</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.20904899999999996</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.25797733333333334</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <v>100.182593</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7">
+      <c r="J7" s="1">
         <v>82.318333333333328</v>
       </c>
       <c r="AB7" t="s">
@@ -12500,36 +12491,35 @@
       <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="6">
         <f t="shared" si="0"/>
         <v>1.7241379310344827</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>39.756799999999998</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>43.206733333333325</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>16.186600000000002</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.24008533333333335</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.26217999999999997</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="1">
         <v>99.65239866666667</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7">
+      <c r="J8" s="1">
         <v>82.633566666666681</v>
       </c>
       <c r="AB8" t="s">
@@ -12538,36 +12528,35 @@
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>39.803033333333339</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>42.790733333333328</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>16.536899999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.23655766666666667</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.26409533333333335</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="1">
         <v>99.63131966666667</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7">
+      <c r="J9" s="1">
         <v>82.182900000000004</v>
       </c>
       <c r="AB9" t="s">
@@ -12576,36 +12565,35 @@
       <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="6">
         <f t="shared" si="0"/>
         <v>3.4482758620689653</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>39.686100000000003</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43.112600000000008</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>16.4283</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.23844699999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.25679599999999997</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="1">
         <v>99.722243000000006</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7">
+      <c r="J10" s="1">
         <v>82.388199999999998</v>
       </c>
       <c r="AC10">
@@ -12613,619 +12601,597 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>39.918666666666667</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>43.145633333333329</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>16.432299999999998</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.22482366666666667</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.27938466666666667</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="1">
         <v>100.00080833333334</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7">
+      <c r="J11" s="1">
         <v>82.395733333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>39.922500000000007</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>43.057266666666663</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>16.584066666666665</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.22084933333333334</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.26249133333333335</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="1">
         <v>100.04717399999998</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7">
+      <c r="J12" s="1">
         <v>82.232066666666654</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>39.982433333333326</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>43.442433333333334</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>15.939599999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.27437800000000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.24235633333333331</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="1">
         <v>99.88120099999999</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7">
+      <c r="J13" s="1">
         <v>82.930300000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>39.889833333333335</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>42.869566666666664</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>16.989566666666665</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.20858666666666667</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.25685866666666662</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="1">
         <v>100.214412</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7">
+      <c r="J14" s="1">
         <v>81.811466666666661</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>39.97913333333333</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>43.0687</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>16.631033333333331</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.216672</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.26527666666666666</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="1">
         <v>100.16081533333333</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7">
+      <c r="J15" s="1">
         <v>82.194633333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>39.907499999999999</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>43.084933333333339</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>16.218666666666667</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.23757499999999998</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.2572396666666667</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="1">
         <v>99.705914666666672</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7">
+      <c r="J16" s="1">
         <v>82.564499999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>40.089233333333333</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>43.113599999999998</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>16.333966666666665</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.23777133333333333</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.26514199999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="1">
         <v>100.03971333333332</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7">
+      <c r="J17" s="1">
         <v>82.471966666666674</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>39.793333333333329</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>43.204333333333331</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>16.392099999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.22133233333333333</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.26347700000000002</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="1">
         <v>99.87457599999999</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7">
+      <c r="J18" s="1">
         <v>82.451000000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>39.793299999999995</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>43.227966666666667</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>16.50363333333333</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.22006199999999998</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.26024900000000001</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="1">
         <v>100.00521100000002</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7">
+      <c r="J19" s="1">
         <v>82.360566666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>39.862066666666664</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>43.157966666666674</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>16.626666666666665</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.219661</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.26502133333333333</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="1">
         <v>100.13138233333332</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7">
+      <c r="J20" s="1">
         <v>82.228733333333324</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>39.845400000000005</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>43.249600000000008</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>16.420366666666666</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.223971</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.26254166666666667</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="1">
         <v>100.00187933333332</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7">
+      <c r="J21" s="1">
         <v>82.441199999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>39.680399999999999</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>42.903933333333335</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>16.592633333333335</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.25542166666666666</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.26823066666666667</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="1">
         <v>99.700618999999975</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7">
+      <c r="J22" s="1">
         <v>82.172133333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>39.540633333333339</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>42.959566666666667</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>16.460400000000003</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.22693133333333335</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.26592699999999997</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="1">
         <v>99.45345833333333</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7">
+      <c r="J23" s="1">
         <v>82.30810000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>39.3095</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>42.920799999999993</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>16.485733333333332</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.22991333333333333</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.27088166666666669</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="1">
         <v>99.216828333333339</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7">
+      <c r="J24" s="1">
         <v>82.272499999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>39.328600000000002</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>42.809100000000001</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>16.559433333333331</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.2203286666666667</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.26714666666666664</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="1">
         <v>99.184608666666676</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7">
+      <c r="J25" s="1">
         <v>82.169300000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>39.585000000000001</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>43.538099999999993</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>16.285833333333333</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.22950333333333331</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.26006633333333334</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="1">
         <v>99.898503000000005</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7">
+      <c r="J26" s="1">
         <v>82.655500000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>39.744233333333334</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>44.289200000000001</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>14.803166666666668</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.33417966666666671</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.22789499999999999</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="1">
         <v>99.398674666666651</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="7">
+      <c r="J27" s="1">
         <v>84.210366666666673</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>39.435933333333331</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>43.159466666666667</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>16.170433333333335</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>0.23380100000000001</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.26757999999999998</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="1">
         <v>99.267214333333342</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="7">
+      <c r="J28" s="1">
         <v>82.632266666666666</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>40.063333333333333</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>44.835766666666665</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>14.276566666666668</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>0.32466833333333334</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0.23105566666666666</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="1">
         <v>99.731390666666655</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7">
+      <c r="J29" s="1">
         <v>84.844366666666659</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>39.63153333333333</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>42.945799999999998</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>16.631</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0.22146666666666667</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.26784533333333332</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="1">
         <v>99.697645333333341</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="7">
+      <c r="J30" s="1">
         <v>82.152799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>39.654733333333333</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>42.965166666666669</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>16.452500000000001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>0.23680699999999999</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>0.26316066666666665</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="1">
         <v>99.572367666666665</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="7">
+      <c r="J31" s="1">
         <v>82.317033333333328</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>40.431733333333334</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>45.91076666666666</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>12.9596</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>0.30889366666666668</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>0.21957300000000002</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="1">
         <v>99.830566666666684</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="7">
+      <c r="J32" s="1">
         <v>86.329466666666676</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -13255,788 +13221,753 @@
         <v>82.533399999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>39.973866666666659</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>43.345199999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>16.127233333333333</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>0.22930600000000001</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>0.26297199999999998</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="1">
         <v>99.938578000000007</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="7">
+      <c r="J33" s="1">
         <v>82.731999999999985</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>39.688766666666659</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>43.311266666666661</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>16.409266666666664</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>0.22881566666666667</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>0.26922366666666669</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="1">
         <v>99.907339333333354</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="7">
+      <c r="J34" s="1">
         <v>82.471566666666661</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>39.908099999999997</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>43.142299999999999</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>16.535833333333333</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>0.22694299999999998</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>0.26290166666666664</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="1">
         <v>100.07607800000001</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7">
+      <c r="J35" s="1">
         <v>82.303433333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>39.596733333333333</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>43.241300000000003</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>16.30203333333333</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.2329313333333333</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>0.26698966666666668</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="1">
         <v>99.639987666666684</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7">
+      <c r="J36" s="1">
         <v>82.542833333333334</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>39.658833333333334</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>43.177999999999997</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>16.285933333333332</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>0.24751699999999999</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>0.25062766666666669</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="1">
         <v>99.620911333333325</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="7">
+      <c r="J37" s="1">
         <v>82.536033333333322</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>39.541599999999995</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>43.049933333333335</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>16.399333333333335</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.26025866666666669</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>0.25711000000000001</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="1">
         <v>99.508235333333332</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7">
+      <c r="J38" s="1">
         <v>82.392766666666674</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>39.764933333333339</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>44.321866666666665</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>14.8668</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>0.34542166666666668</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>0.22082900000000003</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="1">
         <v>99.51985066666667</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="7">
+      <c r="J39" s="1">
         <v>84.162999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>39.688866666666662</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>43.109900000000003</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>16.576466666666665</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>0.22067066666666668</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>0.2636053333333333</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="1">
         <v>99.859509333333335</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="7">
+      <c r="J40" s="1">
         <v>82.256666666666675</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>39.502299999999998</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>43.021700000000003</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>16.35755</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>0.22479300000000002</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>0.26762600000000003</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="1">
         <v>99.373969000000002</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="7">
+      <c r="J41" s="1">
         <v>82.420199999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>39.699399999999997</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>43.050833333333337</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>16.287133333333333</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0.23133633333333334</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>0.25814033333333336</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="1">
         <v>99.526843333333318</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="7">
+      <c r="J42" s="1">
         <v>82.492366666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>39.696466666666673</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>42.876866666666665</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>16.466333333333331</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>0.22831633333333334</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>0.26227866666666672</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="1">
         <v>99.530261666666661</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="7">
+      <c r="J43" s="1">
         <v>82.274766666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>39.561700000000002</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>42.835933333333337</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>16.505600000000001</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>0.22410266666666667</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>0.26887166666666668</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="1">
         <v>99.396207666666669</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="7">
+      <c r="J44" s="1">
         <v>82.226066666666668</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>39.812933333333334</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>42.990766666666673</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>16.369166666666668</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>0.23339699999999999</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>0.27107833333333331</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="1">
         <v>99.677341999999996</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="7">
+      <c r="J45" s="1">
         <v>82.399433333333334</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>40.043033333333334</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>43.226699999999994</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>16.523433333333333</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>0.25754333333333335</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>0.25625933333333334</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="1">
         <v>100.30696933333331</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="7">
+      <c r="J46" s="1">
         <v>82.342566666666656</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>39.877633333333335</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>43.117633333333337</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>16.434166666666666</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>0.23108399999999998</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>0.26341100000000001</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="1">
         <v>99.923928333333336</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="7">
+      <c r="J47" s="1">
         <v>82.384566666666657</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>39.979899999999994</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>43.294533333333334</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>16.3262</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>0.23551466666666665</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>0.26054966666666662</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="1">
         <v>100.09669766666667</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="7">
+      <c r="J48" s="1">
         <v>82.539233333333343</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>39.917499999999997</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>43.491366666666671</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>16.015833333333333</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>0.25118099999999999</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>0.24682499999999999</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="1">
         <v>99.922706000000005</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="7">
+      <c r="J49" s="1">
         <v>82.878566666666671</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>39.784066666666668</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>43.127833333333335</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>16.525200000000002</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>0.22578333333333334</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>0.26425366666666666</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="1">
         <v>99.927137000000002</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="7">
+      <c r="J50" s="1">
         <v>82.307866666666669</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>39.612033333333329</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>43.074733333333334</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>16.558800000000002</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>0.22244666666666668</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>0.26327533333333331</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="1">
         <v>99.731288666666671</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="7">
+      <c r="J51" s="1">
         <v>82.260300000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>39.656800000000004</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>43.195766666666664</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>16.526599999999998</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>0.22486966666666666</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>0.25858766666666666</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="1">
         <v>99.862623999999997</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="7">
+      <c r="J52" s="1">
         <v>82.329533333333345</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>39.709033333333331</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>43.420699999999989</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>16.317066666666665</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>0.24651933333333331</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>0.25297433333333336</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="1">
         <v>99.946293666666648</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="7">
+      <c r="J53" s="1">
         <v>82.589133333333336</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>39.592000000000006</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>43.015933333333329</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>16.592600000000001</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>0.22491333333333333</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>0.26430066666666668</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="1">
         <v>99.689747333333329</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="7">
+      <c r="J54" s="1">
         <v>82.210566666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>39.814633333333333</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>43.817433333333327</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>15.8483</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>0.27403433333333332</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>0.22527433333333335</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="1">
         <v>99.979675333333319</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="7">
+      <c r="J55" s="1">
         <v>83.132300000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>39.6372</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>42.850099999999998</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>16.563266666666667</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>0.22079233333333334</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>0.26769899999999996</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="1">
         <v>99.539057999999997</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="7">
+      <c r="J56" s="1">
         <v>82.179866666666669</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>39.704266666666662</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>43.200766666666674</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>16.311366666666668</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>0.2228766666666667</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>0.26225666666666664</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="1">
         <v>99.70153333333333</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="7">
+      <c r="J57" s="1">
         <v>82.52106666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="7">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J59" s="1">
         <v>81.5</v>
       </c>
       <c r="K59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>40.452199999999998</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>47.150833333333331</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>11.432400000000001</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>0.3810013333333333</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>0.21866733333333332</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="1">
         <v>99.635102000000003</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="7">
+      <c r="J60" s="1">
         <v>88.026799999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>40.444066666666664</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>47.317800000000005</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>11.660366666666667</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>0.3876573333333333</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>0.23073100000000002</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="1">
         <v>100.04062166666667</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="7">
+      <c r="J61" s="1">
         <v>87.854866666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I63" t="s">
         <v>88</v>
       </c>
@@ -14062,12 +13993,12 @@
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14096,7 +14027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -14126,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -14156,7 +14087,7 @@
         <v>10.012</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -14186,7 +14117,7 @@
         <v>20.0245</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -14216,7 +14147,7 @@
         <v>30.046900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -14246,7 +14177,7 @@
         <v>40.059600000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -14276,7 +14207,7 @@
         <v>49.957599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -14306,7 +14237,7 @@
         <v>59.970100000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -14336,7 +14267,7 @@
         <v>69.982500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -14366,7 +14297,7 @@
         <v>79.995599999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -14396,7 +14327,7 @@
         <v>90.007999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -14426,7 +14357,7 @@
         <v>100.021</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -14456,7 +14387,7 @@
         <v>110.033</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -14486,7 +14417,7 @@
         <v>120.045</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -14516,7 +14447,7 @@
         <v>130.06700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -14546,7 +14477,7 @@
         <v>139.96600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -14576,7 +14507,7 @@
         <v>149.97800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -14606,7 +14537,7 @@
         <v>159.99100000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -14636,7 +14567,7 @@
         <v>170.00399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -14666,7 +14597,7 @@
         <v>180.01599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -14696,7 +14627,7 @@
         <v>190.029</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -14726,7 +14657,7 @@
         <v>200.041</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -14756,7 +14687,7 @@
         <v>210.053</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -14786,7 +14717,7 @@
         <v>219.96199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -14816,7 +14747,7 @@
         <v>229.97399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -14846,7 +14777,7 @@
         <v>239.98599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -14880,7 +14811,7 @@
         <v>87.84523333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -14910,7 +14841,7 @@
         <v>260.01100000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -14940,7 +14871,7 @@
         <v>270.024</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -14970,7 +14901,7 @@
         <v>280.03699999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -15000,7 +14931,7 @@
         <v>289.959</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -15030,7 +14961,7 @@
         <v>299.97199999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -15060,7 +14991,7 @@
         <v>309.98399999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -15090,7 +15021,7 @@
         <v>319.99200000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -15120,7 +15051,7 @@
         <v>329.995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -15150,7 +15081,7 @@
         <v>340.00700000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -15180,7 +15111,7 @@
         <v>350.01900000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -15210,7 +15141,7 @@
         <v>360.03199999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -15240,7 +15171,7 @@
         <v>370.04500000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -15270,7 +15201,7 @@
         <v>380.05700000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -15300,7 +15231,7 @@
         <v>389.98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -15330,7 +15261,7 @@
         <v>399.988</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -15360,7 +15291,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -15390,7 +15321,7 @@
         <v>420.01299999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -15420,7 +15351,7 @@
         <v>430.02499999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -15466,16 +15397,16 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15504,7 +15435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -15533,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -15562,7 +15493,7 @@
         <v>9.9657199999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -15591,7 +15522,7 @@
         <v>20.009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -15620,7 +15551,7 @@
         <v>29.974699999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -15649,7 +15580,7 @@
         <v>40.018000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -15678,7 +15609,7 @@
         <v>49.983699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -15707,7 +15638,7 @@
         <v>60.036900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -15736,7 +15667,7 @@
         <v>69.992800000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -15765,7 +15696,7 @@
         <v>80.045900000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -15794,7 +15725,7 @@
         <v>90.011600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -15823,7 +15754,7 @@
         <v>100.05500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -15852,7 +15783,7 @@
         <v>110.021</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -15881,7 +15812,7 @@
         <v>119.965</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -15910,7 +15841,7 @@
         <v>130.029</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -15939,7 +15870,7 @@
         <v>139.99299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -15968,7 +15899,7 @@
         <v>150.03800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -15997,7 +15928,7 @@
         <v>160.00200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -16026,7 +15957,7 @@
         <v>170.03700000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -16055,7 +15986,7 @@
         <v>180.011</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -16084,7 +16015,7 @@
         <v>190.04599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -16113,7 +16044,7 @@
         <v>200.01</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -16142,7 +16073,7 @@
         <v>209.96600000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -16171,7 +16102,7 @@
         <v>220.01900000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -16200,7 +16131,7 @@
         <v>229.965</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -16229,7 +16160,7 @@
         <v>240.02699999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -16258,7 +16189,7 @@
         <v>249.989</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -16287,7 +16218,7 @@
         <v>260.036</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -16316,7 +16247,7 @@
         <v>269.99799999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -16345,7 +16276,7 @@
         <v>279.94600000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -16374,7 +16305,7 @@
         <v>290.00700000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -16403,7 +16334,7 @@
         <v>299.95499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -16432,7 +16363,7 @@
         <v>310.01499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -16461,7 +16392,7 @@
         <v>319.96300000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -16490,7 +16421,7 @@
         <v>330.03399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -16519,7 +16450,7 @@
         <v>339.988</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -16548,7 +16479,7 @@
         <v>350.04300000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -16577,10 +16508,10 @@
         <v>360.00700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -16615,10 +16546,10 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M41" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -16647,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -16676,7 +16607,7 @@
         <v>10.0449</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -16705,7 +16636,7 @@
         <v>19.9895</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -16734,7 +16665,7 @@
         <v>30.036300000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -16763,7 +16694,7 @@
         <v>39.982599999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -16792,7 +16723,7 @@
         <v>50.015500000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -16821,7 +16752,7 @@
         <v>59.981699999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -16850,7 +16781,7 @@
         <v>70.024500000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -16879,7 +16810,7 @@
         <v>79.970699999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -16908,7 +16839,7 @@
         <v>90.017600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -16937,7 +16868,7 @@
         <v>99.962199999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -16966,7 +16897,7 @@
         <v>110.00700000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -16995,7 +16926,7 @@
         <v>119.955</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -17024,7 +16955,7 @@
         <v>130.01</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -17053,7 +16984,7 @@
         <v>140.053</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -17082,7 +17013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -17111,7 +17042,7 @@
         <v>160.04599999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -17140,7 +17071,7 @@
         <v>169.99100000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -17169,7 +17100,7 @@
         <v>180.036</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -17198,7 +17129,7 @@
         <v>189.98400000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -17227,7 +17158,7 @@
         <v>200.01900000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -17256,7 +17187,7 @@
         <v>209.99299999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -17285,7 +17216,7 @@
         <v>220.02799999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -17314,7 +17245,7 @@
         <v>229.97200000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -17343,7 +17274,7 @@
         <v>240.017</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -17372,7 +17303,7 @@
         <v>249.965</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -17401,7 +17332,7 @@
         <v>260.00799999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -17430,7 +17361,7 @@
         <v>269.95499999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -17459,7 +17390,7 @@
         <v>280.00200000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -17488,7 +17419,7 @@
         <v>290.05599999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -17517,7 +17448,7 @@
         <v>300.00099999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -17546,7 +17477,7 @@
         <v>310.048</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
